--- a/7Rmart/src/test/resources/TestData.xlsx
+++ b/7Rmart/src/test/resources/TestData.xlsx
@@ -8,12 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\git\Obsqura_Automation\7Rmart\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540C535D-B0F8-4C4B-B210-9C98CB0ED9F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F287274B-A664-46EA-8113-23170B29A99D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9B690876-5BCE-48B1-BAD6-58BCC1872417}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="7" xr2:uid="{9B690876-5BCE-48B1-BAD6-58BCC1872417}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="AddNewManagePageData" sheetId="2" r:id="rId2"/>
+    <sheet name="AddAdminUserData" sheetId="3" r:id="rId3"/>
+    <sheet name="AddSubCategoryData" sheetId="4" r:id="rId4"/>
+    <sheet name="AdminUserSearchData" sheetId="5" r:id="rId5"/>
+    <sheet name="EditCategoryTestData" sheetId="6" r:id="rId6"/>
+    <sheet name="EditContactTestData" sheetId="7" r:id="rId7"/>
+    <sheet name="EditNewsData" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>Password</t>
   </si>
@@ -55,16 +62,102 @@
   </si>
   <si>
     <t>UserName</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Page</t>
+  </si>
+  <si>
+    <t>Midhun</t>
+  </si>
+  <si>
+    <t>hshddduwgd</t>
+  </si>
+  <si>
+    <t>7r mart</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Usertype</t>
+  </si>
+  <si>
+    <t>midhun</t>
+  </si>
+  <si>
+    <t>midhun13</t>
+  </si>
+  <si>
+    <t>DropdownValue</t>
+  </si>
+  <si>
+    <t>SubCategoryFieldValue</t>
+  </si>
+  <si>
+    <t>Iphone 15 pro</t>
+  </si>
+  <si>
+    <t>MIDHUN</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Cars</t>
+  </si>
+  <si>
+    <t>PhoneNumber</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>DeliveryTime</t>
+  </si>
+  <si>
+    <t>DeliveryChargeLimit</t>
+  </si>
+  <si>
+    <t>midhun@gmail.com</t>
+  </si>
+  <si>
+    <t>ugqqgyqgy</t>
+  </si>
+  <si>
+    <t>News</t>
+  </si>
+  <si>
+    <t>This is the new edited news</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -87,13 +180,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -408,7 +505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F678D9FD-4E53-4CFE-997A-85E1CBB11BB5}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -457,4 +554,265 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7AAA70B-575E-47A7-B202-4FEBF4E142E9}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7AD6FD6-C852-49FE-B23D-39317008F3FC}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97FEA533-0B28-4930-A2CE-ECDE952CB663}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.77734375" customWidth="1"/>
+    <col min="2" max="3" width="14.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DEE5349-5C08-4262-BCEF-B7FD7C267357}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E4C22A3-5522-4E83-8636-A1495B409E2B}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD2F8A4F-3883-4531-9938-96AB956E7403}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>6282350817</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.47222222222222221</v>
+      </c>
+      <c r="E2">
+        <v>6162</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{CEB4E00D-E5DE-4BAF-93F5-D189557B01A4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4CC7133-1635-42BD-BF28-5A4D50883BF3}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/7Rmart/src/test/resources/TestData.xlsx
+++ b/7Rmart/src/test/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\git\Obsqura_Automation\7Rmart\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F287274B-A664-46EA-8113-23170B29A99D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAF99FD-9410-4466-ABDC-D5E02FB84AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="7" xr2:uid="{9B690876-5BCE-48B1-BAD6-58BCC1872417}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{9B690876-5BCE-48B1-BAD6-58BCC1872417}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -73,15 +73,6 @@
     <t>Page</t>
   </si>
   <si>
-    <t>Midhun</t>
-  </si>
-  <si>
-    <t>hshddduwgd</t>
-  </si>
-  <si>
-    <t>7r mart</t>
-  </si>
-  <si>
     <t>Username</t>
   </si>
   <si>
@@ -100,9 +91,6 @@
     <t>SubCategoryFieldValue</t>
   </si>
   <si>
-    <t>Iphone 15 pro</t>
-  </si>
-  <si>
     <t>MIDHUN</t>
   </si>
   <si>
@@ -140,6 +128,18 @@
   </si>
   <si>
     <t>This is the new edited news</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Hi this is a test description</t>
+  </si>
+  <si>
+    <t>Test Page</t>
+  </si>
+  <si>
+    <t>Tomatos</t>
   </si>
 </sst>
 </file>
@@ -561,7 +561,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -575,7 +575,7 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -583,7 +583,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -591,7 +591,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -611,21 +611,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -640,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97FEA533-0B28-4930-A2CE-ECDE952CB663}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -652,18 +652,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B1">
-        <v>247</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -686,18 +686,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -717,12 +717,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -749,19 +749,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
         <v>24</v>
-      </c>
-      <c r="B1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -769,10 +769,10 @@
         <v>6282350817</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2">
         <v>0.47222222222222221</v>
@@ -793,7 +793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4CC7133-1635-42BD-BF28-5A4D50883BF3}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -804,12 +804,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
